--- a/config_5.18/fish_yutu_random_2.xlsx
+++ b/config_5.18/fish_yutu_random_2.xlsx
@@ -248,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,9 +282,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,8 +345,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,10 +383,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,37 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -366,79 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +451,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +577,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,151 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,12 +660,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -704,16 +718,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,192 +749,164 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -954,21 +940,21 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1571,7 +1557,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1821,12 +1807,8 @@
       <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A13" s="2">
@@ -1844,12 +1826,8 @@
       <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A14" s="2">
@@ -1867,12 +1845,8 @@
       <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A15" s="2">
@@ -1890,12 +1864,8 @@
       <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A16" s="2">
@@ -1913,12 +1883,8 @@
       <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A17" s="2">
@@ -1936,12 +1902,8 @@
       <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A18" s="2">
@@ -1959,12 +1921,8 @@
       <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A19" s="2">
@@ -1982,12 +1940,8 @@
       <c r="E19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A20" s="2">
@@ -2005,12 +1959,8 @@
       <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A21" s="2">
@@ -2028,12 +1978,8 @@
       <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1621871999</v>
-      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.18/fish_yutu_random_2.xlsx
+++ b/config_5.18/fish_yutu_random_2.xlsx
@@ -250,10 +250,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -288,16 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,11 +310,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,15 +342,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,9 +363,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,15 +379,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,14 +414,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -399,24 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +458,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +548,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,145 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,59 +667,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,6 +708,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -766,7 +773,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,140 +782,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -921,10 +928,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -933,8 +940,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -945,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -955,6 +962,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1557,7 +1567,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1807,8 +1817,12 @@
       <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8">
+        <v>1613433600</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1614009599</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A13" s="2">
@@ -1826,8 +1840,12 @@
       <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="8">
+        <v>1613433600</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1614009599</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A14" s="2">
@@ -1845,8 +1863,12 @@
       <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="8">
+        <v>1613433600</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1614009599</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A15" s="2">
@@ -1864,8 +1886,12 @@
       <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="8">
+        <v>1613433600</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1614009599</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A16" s="2">
@@ -1883,8 +1909,12 @@
       <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="8">
+        <v>1613433600</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1614009599</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A17" s="2">
@@ -1902,8 +1932,12 @@
       <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="8">
+        <v>1614038400</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1614614399</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A18" s="2">
@@ -1921,8 +1955,12 @@
       <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8">
+        <v>1614038400</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1614614399</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A19" s="2">
@@ -1940,8 +1978,12 @@
       <c r="E19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="8">
+        <v>1614038400</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1614614399</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A20" s="2">
@@ -1959,8 +2001,12 @@
       <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="8">
+        <v>1614038400</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1614614399</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A21" s="2">
@@ -1978,8 +2024,12 @@
       <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="8">
+        <v>1614038400</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1614614399</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2393,7 +2443,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -2403,7 +2453,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -2413,7 +2463,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -2423,7 +2473,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2699,7 +2749,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
